--- a/名人名言精髓语录/名人语录（1-10）.xlsx
+++ b/名人名言精髓语录/名人语录（1-10）.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\@CaiZM\主要 文档\名人语录\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Adok\Adok\名人名言精髓语录\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6F9FDF-C02E-4074-A352-8C69B7A8CCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E0A461-4BEC-4DAE-9CC3-41A3F58D15E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="804" xr2:uid="{21EA9CDF-ECF3-483B-84D6-C1BEABE7E33E}"/>
   </bookViews>
@@ -26,6 +26,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1-爱因斯坦'!$B$1:$B$201</definedName>
+    <definedName name="Adok">'1-爱因斯坦'!$A$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2001,8 +2002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD731F26-AD70-4ED7-A391-A06A7B6B103B}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B205" sqref="B205"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -2531,7 +2532,7 @@
   <dimension ref="A1:B71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
